--- a/teamOverview/sprintBacklog/sprint_6/Sprint_Plan_6.xlsx
+++ b/teamOverview/sprintBacklog/sprint_6/Sprint_Plan_6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riaz\AppData\Local\Packages\CanonicalGroupLimited.UbuntuonWindows_79rhkp1fndgsc\LocalState\rootfs\root\Team10\teamOverview\sprintBacklog\sprint_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1478\Desktop\not_demo\Team10\teamOverview\sprintBacklog\sprint_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0969640F-3A56-45C7-9FE0-6FE63C009BDB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0D7145ED-F30C-4098-9F35-80322213B15A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{A77A4CAF-E55C-482B-8A9C-7C36A67CB415}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="9075" xr2:uid="{A77A4CAF-E55C-482B-8A9C-7C36A67CB415}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,13 +474,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B285E3BF-A19F-460C-B57A-151347F8CE84}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +491,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -522,7 +520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -543,7 +541,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -564,7 +562,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -583,7 +581,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -602,7 +600,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -625,7 +623,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -646,7 +644,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -669,7 +667,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -692,7 +690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -717,14 +715,16 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>52</v>
+      </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
@@ -736,7 +736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -755,7 +755,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -766,7 +766,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -777,7 +777,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -788,7 +788,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -799,7 +799,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -810,7 +810,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -821,7 +821,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
